--- a/data/par/8.xlsx
+++ b/data/par/8.xlsx
@@ -481,79 +481,79 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1.767262e-06</v>
+        <v>0.0001258098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1080062389373779</v>
+        <v>0.1060061454772949</v>
       </c>
       <c r="B8" t="n">
-        <v>1.76589e-06</v>
+        <v>0.0001258286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2010114192962646</v>
+        <v>0.2170124053955078</v>
       </c>
       <c r="B9" t="n">
-        <v>1.763052e-06</v>
+        <v>0.0001258608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3170180320739746</v>
+        <v>0.3010172843933105</v>
       </c>
       <c r="B10" t="n">
-        <v>1.765574e-06</v>
+        <v>0.0001259025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4090235233306885</v>
+        <v>0.4050233364105225</v>
       </c>
       <c r="B11" t="n">
-        <v>1.765497e-06</v>
+        <v>0.0001258995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5230298042297363</v>
+        <v>0.5140292644500732</v>
       </c>
       <c r="B12" t="n">
-        <v>1.761988e-06</v>
+        <v>0.0001259206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6060347557067871</v>
+        <v>0.6070349216461182</v>
       </c>
       <c r="B13" t="n">
-        <v>1.764839e-06</v>
+        <v>0.0001259661</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7150406837463379</v>
+        <v>0.7170412540435791</v>
       </c>
       <c r="B14" t="n">
-        <v>1.763825e-06</v>
+        <v>0.0001259942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8070461750030518</v>
+        <v>0.8260471820831299</v>
       </c>
       <c r="B15" t="n">
-        <v>1.76396e-06</v>
+        <v>0.0001259768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9080519676208496</v>
+        <v>0.9350535869598389</v>
       </c>
       <c r="B16" t="n">
-        <v>1.763352e-06</v>
+        <v>0.0001260132</v>
       </c>
     </row>
     <row r="17">
@@ -561,295 +561,295 @@
         <v>1.005057573318481</v>
       </c>
       <c r="B17" t="n">
-        <v>1.765136e-06</v>
+        <v>0.0001260049</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.104063272476196</v>
+        <v>1.113063812255859</v>
       </c>
       <c r="B18" t="n">
-        <v>1.765583e-06</v>
+        <v>0.0001259981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.204068899154663</v>
+        <v>1.203068971633911</v>
       </c>
       <c r="B19" t="n">
-        <v>1.765666e-06</v>
+        <v>0.000126029</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.305074691772461</v>
+        <v>1.301074504852295</v>
       </c>
       <c r="B20" t="n">
-        <v>1.764517e-06</v>
+        <v>0.0001260335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.405080318450928</v>
+        <v>1.402080297470093</v>
       </c>
       <c r="B21" t="n">
-        <v>1.76529e-06</v>
+        <v>0.0001260623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.509086132049561</v>
+        <v>1.504086017608643</v>
       </c>
       <c r="B22" t="n">
-        <v>1.766189e-06</v>
+        <v>0.0001260527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.609091997146606</v>
+        <v>1.603091716766357</v>
       </c>
       <c r="B23" t="n">
-        <v>1.76642e-06</v>
+        <v>0.0001260745</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.725098848342896</v>
+        <v>1.713098049163818</v>
       </c>
       <c r="B24" t="n">
-        <v>1.765451e-06</v>
+        <v>0.0001260966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.80910325050354</v>
+        <v>1.80310320854187</v>
       </c>
       <c r="B25" t="n">
-        <v>1.766272e-06</v>
+        <v>0.0001260697</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.900108814239502</v>
+        <v>1.904109001159668</v>
       </c>
       <c r="B26" t="n">
-        <v>1.76504e-06</v>
+        <v>0.0001260953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.008114814758301</v>
+        <v>2.011115312576294</v>
       </c>
       <c r="B27" t="n">
-        <v>1.766259e-06</v>
+        <v>0.000126044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.108120679855347</v>
+        <v>2.11012077331543</v>
       </c>
       <c r="B28" t="n">
-        <v>1.765758e-06</v>
+        <v>0.0001260738</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.207126379013062</v>
+        <v>2.202126026153564</v>
       </c>
       <c r="B29" t="n">
-        <v>1.767246e-06</v>
+        <v>0.000126041</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.307132005691528</v>
+        <v>2.313132286071777</v>
       </c>
       <c r="B30" t="n">
-        <v>1.76731e-06</v>
+        <v>0.0001260656</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.408137798309326</v>
+        <v>2.401137351989746</v>
       </c>
       <c r="B31" t="n">
-        <v>1.767083e-06</v>
+        <v>0.0001260656</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.503143072128296</v>
+        <v>2.503143310546875</v>
       </c>
       <c r="B32" t="n">
-        <v>1.76607e-06</v>
+        <v>0.0001260791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.60114860534668</v>
+        <v>2.610149383544922</v>
       </c>
       <c r="B33" t="n">
-        <v>1.767626e-06</v>
+        <v>0.0001261045</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.70415472984314</v>
+        <v>2.709155082702637</v>
       </c>
       <c r="B34" t="n">
-        <v>1.767789e-06</v>
+        <v>0.0001260773</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.806160449981689</v>
+        <v>2.80016016960144</v>
       </c>
       <c r="B35" t="n">
-        <v>1.766934e-06</v>
+        <v>0.0001260684</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.901165723800659</v>
+        <v>2.90916633605957</v>
       </c>
       <c r="B36" t="n">
-        <v>1.76768e-06</v>
+        <v>0.0001260691</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.007172107696533</v>
+        <v>3.029173374176025</v>
       </c>
       <c r="B37" t="n">
-        <v>1.766717e-06</v>
+        <v>0.0001260482</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.100177049636841</v>
+        <v>3.14117956161499</v>
       </c>
       <c r="B38" t="n">
-        <v>1.767189e-06</v>
+        <v>0.0001260285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.20918345451355</v>
+        <v>3.24418568611145</v>
       </c>
       <c r="B39" t="n">
-        <v>1.767297e-06</v>
+        <v>0.0001260538</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.312189340591431</v>
+        <v>3.314189672470093</v>
       </c>
       <c r="B40" t="n">
-        <v>1.767814e-06</v>
+        <v>0.0001260467</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.40119457244873</v>
+        <v>3.42119574546814</v>
       </c>
       <c r="B41" t="n">
-        <v>1.767834e-06</v>
+        <v>0.0001260508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.50320029258728</v>
+        <v>3.519201278686523</v>
       </c>
       <c r="B42" t="n">
-        <v>1.76644e-06</v>
+        <v>0.0001260298</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.608206272125244</v>
+        <v>3.609206438064575</v>
       </c>
       <c r="B43" t="n">
-        <v>1.766058e-06</v>
+        <v>0.000126039</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.707211971282959</v>
+        <v>3.704211950302124</v>
       </c>
       <c r="B44" t="n">
-        <v>1.769091e-06</v>
+        <v>0.0001260352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.821218490600586</v>
+        <v>3.812218189239502</v>
       </c>
       <c r="B45" t="n">
-        <v>1.769049e-06</v>
+        <v>0.0001260412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.902223110198975</v>
+        <v>3.909223794937134</v>
       </c>
       <c r="B46" t="n">
-        <v>1.768942e-06</v>
+        <v>0.0001260556</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.004228830337524</v>
+        <v>4.008229494094849</v>
       </c>
       <c r="B47" t="n">
-        <v>1.76859e-06</v>
+        <v>0.0001260292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.108234882354736</v>
+        <v>4.115235328674316</v>
       </c>
       <c r="B48" t="n">
-        <v>1.768297e-06</v>
+        <v>0.0001260034</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.213241100311279</v>
+        <v>4.206240653991699</v>
       </c>
       <c r="B49" t="n">
-        <v>1.768977e-06</v>
+        <v>0.0001260119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.307246208190918</v>
+        <v>4.300246000289917</v>
       </c>
       <c r="B50" t="n">
-        <v>1.768811e-06</v>
+        <v>0.0001260309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.413252353668213</v>
+        <v>4.400251626968384</v>
       </c>
       <c r="B51" t="n">
-        <v>1.769409e-06</v>
+        <v>0.0001260227</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.517258405685425</v>
+        <v>4.504257917404175</v>
       </c>
       <c r="B52" t="n">
-        <v>1.767736e-06</v>
+        <v>0.0001260259</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.606263637542725</v>
+        <v>4.604263544082642</v>
       </c>
       <c r="B53" t="n">
-        <v>1.767613e-06</v>
+        <v>0.0001260069</v>
       </c>
     </row>
     <row r="54">
@@ -857,63 +857,63 @@
         <v>4.701268911361694</v>
       </c>
       <c r="B54" t="n">
-        <v>1.769329e-06</v>
+        <v>0.0001260432</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.809275150299072</v>
+        <v>4.803274869918823</v>
       </c>
       <c r="B55" t="n">
-        <v>1.76855e-06</v>
+        <v>0.0001260172</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.906280755996704</v>
+        <v>4.909280776977539</v>
       </c>
       <c r="B56" t="n">
-        <v>1.769211e-06</v>
+        <v>0.0001260461</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.005286455154419</v>
+        <v>5.014286756515503</v>
       </c>
       <c r="B57" t="n">
-        <v>1.767951e-06</v>
+        <v>0.0001260611</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.111292362213135</v>
+        <v>5.103291988372803</v>
       </c>
       <c r="B58" t="n">
-        <v>1.768663e-06</v>
+        <v>0.000126062</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.201297283172607</v>
+        <v>5.219298601150513</v>
       </c>
       <c r="B59" t="n">
-        <v>1.768381e-06</v>
+        <v>0.0001260333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.30630350112915</v>
+        <v>5.320304393768311</v>
       </c>
       <c r="B60" t="n">
-        <v>1.769619e-06</v>
+        <v>0.0001260367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.410309314727783</v>
+        <v>5.409309387207031</v>
       </c>
       <c r="B61" t="n">
-        <v>1.769443e-06</v>
+        <v>0.0001260354</v>
       </c>
     </row>
     <row r="62">
@@ -921,1519 +921,1519 @@
         <v>5.500314712524414</v>
       </c>
       <c r="B62" t="n">
-        <v>1.768374e-06</v>
+        <v>0.0001260574</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.603320598602295</v>
+        <v>5.609320878982544</v>
       </c>
       <c r="B63" t="n">
-        <v>1.770522e-06</v>
+        <v>0.0001260562</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.716326951980591</v>
+        <v>5.728327751159668</v>
       </c>
       <c r="B64" t="n">
-        <v>1.770716e-06</v>
+        <v>0.0001260454</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.80433201789856</v>
+        <v>5.848334550857544</v>
       </c>
       <c r="B65" t="n">
-        <v>1.770901e-06</v>
+        <v>0.0001260522</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.905337810516357</v>
+        <v>5.959341049194336</v>
       </c>
       <c r="B66" t="n">
-        <v>1.770581e-06</v>
+        <v>0.0001260835</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.012343883514404</v>
+        <v>6.063346862792969</v>
       </c>
       <c r="B67" t="n">
-        <v>1.771101e-06</v>
+        <v>0.0001260901</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.103348970413208</v>
+        <v>6.151352167129517</v>
       </c>
       <c r="B68" t="n">
-        <v>1.771131e-06</v>
+        <v>0.0001260947</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.202354669570923</v>
+        <v>6.251357793807983</v>
       </c>
       <c r="B69" t="n">
-        <v>1.771075e-06</v>
+        <v>0.0001260986</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.302360534667969</v>
+        <v>6.345362901687622</v>
       </c>
       <c r="B70" t="n">
-        <v>1.771715e-06</v>
+        <v>0.0001260778</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.403366327285767</v>
+        <v>6.453369140625</v>
       </c>
       <c r="B71" t="n">
-        <v>1.77127e-06</v>
+        <v>0.0001260886</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.50137186050415</v>
+        <v>6.543374300003052</v>
       </c>
       <c r="B72" t="n">
-        <v>1.772272e-06</v>
+        <v>0.0001260805</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.609378099441528</v>
+        <v>6.633379459381104</v>
       </c>
       <c r="B73" t="n">
-        <v>1.770155e-06</v>
+        <v>0.0001260614</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.709383726119995</v>
+        <v>6.723384618759155</v>
       </c>
       <c r="B74" t="n">
-        <v>1.771454e-06</v>
+        <v>0.000126063</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.807389497756958</v>
+        <v>6.813389778137207</v>
       </c>
       <c r="B75" t="n">
-        <v>1.771131e-06</v>
+        <v>0.0001260628</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.910395383834839</v>
+        <v>6.907395124435425</v>
       </c>
       <c r="B76" t="n">
-        <v>1.771058e-06</v>
+        <v>0.0001260594</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.008400917053223</v>
+        <v>7.00640082359314</v>
       </c>
       <c r="B77" t="n">
-        <v>1.769277e-06</v>
+        <v>0.0001260721</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.119407176971436</v>
+        <v>7.114406824111938</v>
       </c>
       <c r="B78" t="n">
-        <v>1.769975e-06</v>
+        <v>0.0001261219</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.216412544250488</v>
+        <v>7.209412336349487</v>
       </c>
       <c r="B79" t="n">
-        <v>1.770227e-06</v>
+        <v>0.0001261162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.300417423248291</v>
+        <v>7.308418035507202</v>
       </c>
       <c r="B80" t="n">
-        <v>1.769826e-06</v>
+        <v>0.0001261019</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.408423662185669</v>
+        <v>7.414424180984497</v>
       </c>
       <c r="B81" t="n">
-        <v>1.769052e-06</v>
+        <v>0.0001260969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.510429620742798</v>
+        <v>7.504429340362549</v>
       </c>
       <c r="B82" t="n">
-        <v>1.770177e-06</v>
+        <v>0.0001261065</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.60043478012085</v>
+        <v>7.613435745239258</v>
       </c>
       <c r="B83" t="n">
-        <v>1.768686e-06</v>
+        <v>0.0001261114</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.713441371917725</v>
+        <v>7.71644139289856</v>
       </c>
       <c r="B84" t="n">
-        <v>1.770204e-06</v>
+        <v>0.0001260804</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.813446998596191</v>
+        <v>7.807446479797363</v>
       </c>
       <c r="B85" t="n">
-        <v>1.770733e-06</v>
+        <v>0.0001261151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.902451992034912</v>
+        <v>7.903452157974243</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76975e-06</v>
+        <v>0.0001261018</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.01745867729187</v>
+        <v>8.011458396911621</v>
       </c>
       <c r="B87" t="n">
-        <v>1.769625e-06</v>
+        <v>0.0001260581</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.116464138031006</v>
+        <v>8.108464002609253</v>
       </c>
       <c r="B88" t="n">
-        <v>1.769912e-06</v>
+        <v>0.0001260853</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.206469297409058</v>
+        <v>8.20846962928772</v>
       </c>
       <c r="B89" t="n">
-        <v>1.769968e-06</v>
+        <v>0.0001260848</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.305474996566772</v>
+        <v>8.312475681304932</v>
       </c>
       <c r="B90" t="n">
-        <v>1.77017e-06</v>
+        <v>0.0001260752</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.410481214523315</v>
+        <v>8.405481100082397</v>
       </c>
       <c r="B91" t="n">
-        <v>1.77026e-06</v>
+        <v>0.0001260563</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.500486135482788</v>
+        <v>8.506486654281616</v>
       </c>
       <c r="B92" t="n">
-        <v>1.768531e-06</v>
+        <v>0.0001260851</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.6044921875</v>
+        <v>8.613492727279663</v>
       </c>
       <c r="B93" t="n">
-        <v>1.769828e-06</v>
+        <v>0.0001260781</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.720498561859131</v>
+        <v>8.702497720718384</v>
       </c>
       <c r="B94" t="n">
-        <v>1.768539e-06</v>
+        <v>0.0001260644</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.806503772735596</v>
+        <v>8.805503845214844</v>
       </c>
       <c r="B95" t="n">
-        <v>1.769656e-06</v>
+        <v>0.0001260947</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.902508974075317</v>
+        <v>8.913509845733643</v>
       </c>
       <c r="B96" t="n">
-        <v>1.76929e-06</v>
+        <v>0.0001260893</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.009515285491943</v>
+        <v>9.009515523910522</v>
       </c>
       <c r="B97" t="n">
-        <v>1.76939e-06</v>
+        <v>0.0001260787</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.107520818710327</v>
+        <v>9.110521078109741</v>
       </c>
       <c r="B98" t="n">
-        <v>1.768922e-06</v>
+        <v>0.0001260982</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.222527503967285</v>
+        <v>9.21252703666687</v>
       </c>
       <c r="B99" t="n">
-        <v>1.768624e-06</v>
+        <v>0.0001260822</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.301531791687012</v>
+        <v>9.300532102584839</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76881e-06</v>
+        <v>0.0001261054</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.402537822723389</v>
+        <v>9.40353798866272</v>
       </c>
       <c r="B101" t="n">
-        <v>1.768026e-06</v>
+        <v>0.0001260967</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.500543594360352</v>
+        <v>9.509543895721436</v>
       </c>
       <c r="B102" t="n">
-        <v>1.766908e-06</v>
+        <v>0.0001260812</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.607549428939819</v>
+        <v>9.604549407958984</v>
       </c>
       <c r="B103" t="n">
-        <v>1.768835e-06</v>
+        <v>0.0001260866</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.706555128097534</v>
+        <v>9.701555013656616</v>
       </c>
       <c r="B104" t="n">
-        <v>1.768418e-06</v>
+        <v>0.0001261034</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.806560754776001</v>
+        <v>9.810561418533325</v>
       </c>
       <c r="B105" t="n">
-        <v>1.767242e-06</v>
+        <v>0.0001261074</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.905566453933716</v>
+        <v>9.918567419052124</v>
       </c>
       <c r="B106" t="n">
-        <v>1.767718e-06</v>
+        <v>0.0001261185</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.01457285881042</v>
+        <v>10.02157306671143</v>
       </c>
       <c r="B107" t="n">
-        <v>1.767658e-06</v>
+        <v>0.0001261307</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.11957883834839</v>
+        <v>10.11157846450806</v>
       </c>
       <c r="B108" t="n">
-        <v>1.76734e-06</v>
+        <v>0.0001261417</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.20858383178711</v>
+        <v>10.20058345794678</v>
       </c>
       <c r="B109" t="n">
-        <v>1.76731e-06</v>
+        <v>0.0001261367</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.30758953094482</v>
+        <v>10.30458927154541</v>
       </c>
       <c r="B110" t="n">
-        <v>1.768932e-06</v>
+        <v>0.0001261157</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.40759515762329</v>
+        <v>10.41159558296204</v>
       </c>
       <c r="B111" t="n">
-        <v>1.768813e-06</v>
+        <v>0.0001261529</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.50960111618042</v>
+        <v>10.50860118865967</v>
       </c>
       <c r="B112" t="n">
-        <v>1.768572e-06</v>
+        <v>0.0001261828</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.60660648345947</v>
+        <v>10.60760688781738</v>
       </c>
       <c r="B113" t="n">
-        <v>1.768735e-06</v>
+        <v>0.0001261848</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.70061206817627</v>
+        <v>10.7136127948761</v>
       </c>
       <c r="B114" t="n">
-        <v>1.767214e-06</v>
+        <v>0.0001261805</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.8076183795929</v>
+        <v>10.80061769485474</v>
       </c>
       <c r="B115" t="n">
-        <v>1.768634e-06</v>
+        <v>0.0001261891</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.90462350845337</v>
+        <v>10.90962409973145</v>
       </c>
       <c r="B116" t="n">
-        <v>1.769105e-06</v>
+        <v>0.000126227</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.00262928009033</v>
+        <v>11.01362991333008</v>
       </c>
       <c r="B117" t="n">
-        <v>1.767888e-06</v>
+        <v>0.0001262173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.10363507270813</v>
+        <v>11.10363531112671</v>
       </c>
       <c r="B118" t="n">
-        <v>1.767586e-06</v>
+        <v>0.0001262106</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.20364093780518</v>
+        <v>11.20264101028442</v>
       </c>
       <c r="B119" t="n">
-        <v>1.769576e-06</v>
+        <v>0.0001262087</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.30264639854431</v>
+        <v>11.31164693832397</v>
       </c>
       <c r="B120" t="n">
-        <v>1.768243e-06</v>
+        <v>0.0001262238</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.40865254402161</v>
+        <v>11.40565252304077</v>
       </c>
       <c r="B121" t="n">
-        <v>1.768078e-06</v>
+        <v>0.0001262235</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.5096583366394</v>
+        <v>11.50665831565857</v>
       </c>
       <c r="B122" t="n">
-        <v>1.770274e-06</v>
+        <v>0.000126225</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.61666440963745</v>
+        <v>11.60666394233704</v>
       </c>
       <c r="B123" t="n">
-        <v>1.769961e-06</v>
+        <v>0.0001262196</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.7136697769165</v>
+        <v>11.70966982841492</v>
       </c>
       <c r="B124" t="n">
-        <v>1.770326e-06</v>
+        <v>0.0001262322</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.8076753616333</v>
+        <v>11.80967545509338</v>
       </c>
       <c r="B125" t="n">
-        <v>1.770539e-06</v>
+        <v>0.0001262222</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.91768169403076</v>
+        <v>11.91268157958984</v>
       </c>
       <c r="B126" t="n">
-        <v>1.769913e-06</v>
+        <v>0.0001262473</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.02468776702881</v>
+        <v>12.00368666648865</v>
       </c>
       <c r="B127" t="n">
-        <v>1.769158e-06</v>
+        <v>0.0001262512</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.1306939125061</v>
+        <v>12.10469245910645</v>
       </c>
       <c r="B128" t="n">
-        <v>1.770104e-06</v>
+        <v>0.0001262641</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.22169899940491</v>
+        <v>12.21269869804382</v>
       </c>
       <c r="B129" t="n">
-        <v>1.769949e-06</v>
+        <v>0.0001262449</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.30070352554321</v>
+        <v>12.30070376396179</v>
       </c>
       <c r="B130" t="n">
-        <v>1.769631e-06</v>
+        <v>0.0001262716</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.40270924568176</v>
+        <v>12.40370941162109</v>
       </c>
       <c r="B131" t="n">
-        <v>1.768094e-06</v>
+        <v>0.0001262672</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.50271511077881</v>
+        <v>12.50971579551697</v>
       </c>
       <c r="B132" t="n">
-        <v>1.768838e-06</v>
+        <v>0.0001262688</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.60272073745728</v>
+        <v>12.6137216091156</v>
       </c>
       <c r="B133" t="n">
-        <v>1.769535e-06</v>
+        <v>0.0001262676</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.70272660255432</v>
+        <v>12.7197277545929</v>
       </c>
       <c r="B134" t="n">
-        <v>1.768824e-06</v>
+        <v>0.0001262617</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>12.80173206329346</v>
+        <v>12.82373356819153</v>
       </c>
       <c r="B135" t="n">
-        <v>1.769527e-06</v>
+        <v>0.0001262693</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.90773844718933</v>
+        <v>12.9017379283905</v>
       </c>
       <c r="B136" t="n">
-        <v>1.769459e-06</v>
+        <v>0.0001262522</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.0077440738678</v>
+        <v>13.00674414634705</v>
       </c>
       <c r="B137" t="n">
-        <v>1.769889e-06</v>
+        <v>0.0001262615</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.10674977302551</v>
+        <v>13.11175012588501</v>
       </c>
       <c r="B138" t="n">
-        <v>1.770032e-06</v>
+        <v>0.0001262449</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.21075558662415</v>
+        <v>13.20675539970398</v>
       </c>
       <c r="B139" t="n">
-        <v>1.769965e-06</v>
+        <v>0.0001262542</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.30976128578186</v>
+        <v>13.30476117134094</v>
       </c>
       <c r="B140" t="n">
-        <v>1.76966e-06</v>
+        <v>0.0001262617</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.41876745223999</v>
+        <v>13.41076707839966</v>
       </c>
       <c r="B141" t="n">
-        <v>1.769428e-06</v>
+        <v>0.0001262547</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.51177263259888</v>
+        <v>13.50977277755737</v>
       </c>
       <c r="B142" t="n">
-        <v>1.768541e-06</v>
+        <v>0.0001262369</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13.60977840423584</v>
+        <v>13.60877847671509</v>
       </c>
       <c r="B143" t="n">
-        <v>1.769428e-06</v>
+        <v>0.0001262363</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.70978403091431</v>
+        <v>13.71378445625305</v>
       </c>
       <c r="B144" t="n">
-        <v>1.769686e-06</v>
+        <v>0.0001262444</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.81278991699219</v>
+        <v>13.8087899684906</v>
       </c>
       <c r="B145" t="n">
-        <v>1.76997e-06</v>
+        <v>0.0001262389</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.90179514884949</v>
+        <v>13.90279531478882</v>
       </c>
       <c r="B146" t="n">
-        <v>1.769893e-06</v>
+        <v>0.0001262399</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.00380110740662</v>
+        <v>14.00980138778687</v>
       </c>
       <c r="B147" t="n">
-        <v>1.769163e-06</v>
+        <v>0.0001262275</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.11080694198608</v>
+        <v>14.11480760574341</v>
       </c>
       <c r="B148" t="n">
-        <v>1.768725e-06</v>
+        <v>0.0001262403</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.20081233978271</v>
+        <v>14.22081327438354</v>
       </c>
       <c r="B149" t="n">
-        <v>1.768879e-06</v>
+        <v>0.0001262296</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.30981826782227</v>
+        <v>14.31781911849976</v>
       </c>
       <c r="B150" t="n">
-        <v>1.769487e-06</v>
+        <v>0.0001262068</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.41282439231873</v>
+        <v>14.40782403945923</v>
       </c>
       <c r="B151" t="n">
-        <v>1.769645e-06</v>
+        <v>0.0001261926</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.50282955169678</v>
+        <v>14.50983023643494</v>
       </c>
       <c r="B152" t="n">
-        <v>1.768694e-06</v>
+        <v>0.0001262062</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14.60483527183533</v>
+        <v>14.61283588409424</v>
       </c>
       <c r="B153" t="n">
-        <v>1.768845e-06</v>
+        <v>0.0001261811</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.71984171867371</v>
+        <v>14.70184087753296</v>
       </c>
       <c r="B154" t="n">
-        <v>1.7691e-06</v>
+        <v>0.0001261899</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14.82884812355042</v>
+        <v>14.80484676361084</v>
       </c>
       <c r="B155" t="n">
-        <v>1.769713e-06</v>
+        <v>0.0001261576</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.92185354232788</v>
+        <v>14.91185307502747</v>
       </c>
       <c r="B156" t="n">
-        <v>1.769944e-06</v>
+        <v>0.0001261834</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.00185799598694</v>
+        <v>15.01885938644409</v>
       </c>
       <c r="B157" t="n">
-        <v>1.769891e-06</v>
+        <v>0.0001261755</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.10586380958557</v>
+        <v>15.12286520004272</v>
       </c>
       <c r="B158" t="n">
-        <v>1.769622e-06</v>
+        <v>0.0001261488</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.20486950874329</v>
+        <v>15.20987010002136</v>
       </c>
       <c r="B159" t="n">
-        <v>1.768939e-06</v>
+        <v>0.0001261553</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.30587553977966</v>
+        <v>15.31487607955933</v>
       </c>
       <c r="B160" t="n">
-        <v>1.768303e-06</v>
+        <v>0.0001261481</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.41288161277771</v>
+        <v>15.42088222503662</v>
       </c>
       <c r="B161" t="n">
-        <v>1.770051e-06</v>
+        <v>0.0001261459</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.52088761329651</v>
+        <v>15.51788783073425</v>
       </c>
       <c r="B162" t="n">
-        <v>1.769299e-06</v>
+        <v>0.0001261385</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.60989284515381</v>
+        <v>15.60589265823364</v>
       </c>
       <c r="B163" t="n">
-        <v>1.770265e-06</v>
+        <v>0.0001261259</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.71389865875244</v>
+        <v>15.70989871025085</v>
       </c>
       <c r="B164" t="n">
-        <v>1.76857e-06</v>
+        <v>0.0001261358</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.81790471076965</v>
+        <v>15.81490468978882</v>
       </c>
       <c r="B165" t="n">
-        <v>1.76997e-06</v>
+        <v>0.0001261297</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.91891050338745</v>
+        <v>15.90290975570679</v>
       </c>
       <c r="B166" t="n">
-        <v>1.770341e-06</v>
+        <v>0.0001261291</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.01291584968567</v>
+        <v>16.00091528892517</v>
       </c>
       <c r="B167" t="n">
-        <v>1.770173e-06</v>
+        <v>0.000126122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.12092208862305</v>
+        <v>16.10792136192322</v>
       </c>
       <c r="B168" t="n">
-        <v>1.770288e-06</v>
+        <v>0.0001261226</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.2009265422821</v>
+        <v>16.20892715454102</v>
       </c>
       <c r="B169" t="n">
-        <v>1.770065e-06</v>
+        <v>0.0001261202</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.30393242835999</v>
+        <v>16.30193257331848</v>
       </c>
       <c r="B170" t="n">
-        <v>1.77001e-06</v>
+        <v>0.0001260946</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.40493822097778</v>
+        <v>16.41193890571594</v>
       </c>
       <c r="B171" t="n">
-        <v>1.770481e-06</v>
+        <v>0.000126113</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.508944272995</v>
+        <v>16.50794410705566</v>
       </c>
       <c r="B172" t="n">
-        <v>1.768738e-06</v>
+        <v>0.0001261028</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.60694980621338</v>
+        <v>16.60795021057129</v>
       </c>
       <c r="B173" t="n">
-        <v>1.771241e-06</v>
+        <v>0.0001260815</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.7079553604126</v>
+        <v>16.71295619010925</v>
       </c>
       <c r="B174" t="n">
-        <v>1.771557e-06</v>
+        <v>0.0001260804</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.8089611530304</v>
+        <v>16.80196118354797</v>
       </c>
       <c r="B175" t="n">
-        <v>1.769399e-06</v>
+        <v>0.0001261063</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.90096664428711</v>
+        <v>16.90596723556519</v>
       </c>
       <c r="B176" t="n">
-        <v>1.768317e-06</v>
+        <v>0.0001261107</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.00097227096558</v>
+        <v>17.00297260284424</v>
       </c>
       <c r="B177" t="n">
-        <v>1.769202e-06</v>
+        <v>0.0001261162</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.11097860336304</v>
+        <v>17.10797882080078</v>
       </c>
       <c r="B178" t="n">
-        <v>1.770816e-06</v>
+        <v>0.0001260963</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.20098376274109</v>
+        <v>17.21298456192017</v>
       </c>
       <c r="B179" t="n">
-        <v>1.77035e-06</v>
+        <v>0.0001260845</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.30799007415771</v>
+        <v>17.31599044799805</v>
       </c>
       <c r="B180" t="n">
-        <v>1.770662e-06</v>
+        <v>0.0001260509</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.41199588775635</v>
+        <v>17.40499567985535</v>
       </c>
       <c r="B181" t="n">
-        <v>1.770887e-06</v>
+        <v>0.0001260695</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.5020010471344</v>
+        <v>17.5070013999939</v>
       </c>
       <c r="B182" t="n">
-        <v>1.770898e-06</v>
+        <v>0.0001260639</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.60100650787354</v>
+        <v>17.61300730705261</v>
       </c>
       <c r="B183" t="n">
-        <v>1.770126e-06</v>
+        <v>0.0001260634</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.71001291275024</v>
+        <v>17.70101261138916</v>
       </c>
       <c r="B184" t="n">
-        <v>1.771092e-06</v>
+        <v>0.0001260685</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.80901861190796</v>
+        <v>17.80101823806763</v>
       </c>
       <c r="B185" t="n">
-        <v>1.770766e-06</v>
+        <v>0.0001260587</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.92002511024475</v>
+        <v>17.90002417564392</v>
       </c>
       <c r="B186" t="n">
-        <v>1.769174e-06</v>
+        <v>0.0001260355</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.00702977180481</v>
+        <v>18.00602984428406</v>
       </c>
       <c r="B187" t="n">
-        <v>1.769976e-06</v>
+        <v>0.0001260439</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.11703634262085</v>
+        <v>18.1060357093811</v>
       </c>
       <c r="B188" t="n">
-        <v>1.768733e-06</v>
+        <v>0.0001260508</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.22204208374023</v>
+        <v>18.21004152297974</v>
       </c>
       <c r="B189" t="n">
-        <v>1.770047e-06</v>
+        <v>0.0001260359</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.30204677581787</v>
+        <v>18.32904839515686</v>
       </c>
       <c r="B190" t="n">
-        <v>1.770114e-06</v>
+        <v>0.0001260274</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.404052734375</v>
+        <v>18.43405437469482</v>
       </c>
       <c r="B191" t="n">
-        <v>1.770061e-06</v>
+        <v>0.000126032</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.50405836105347</v>
+        <v>18.5420606136322</v>
       </c>
       <c r="B192" t="n">
-        <v>1.769766e-06</v>
+        <v>0.0001260077</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.60606408119202</v>
+        <v>18.63806629180908</v>
       </c>
       <c r="B193" t="n">
-        <v>1.769903e-06</v>
+        <v>0.0001259824</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.71107029914856</v>
+        <v>18.70606994628906</v>
       </c>
       <c r="B194" t="n">
-        <v>1.7678e-06</v>
+        <v>0.0001259898</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.81907629966736</v>
+        <v>18.81107616424561</v>
       </c>
       <c r="B195" t="n">
-        <v>1.768747e-06</v>
+        <v>0.0001259748</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.91108179092407</v>
+        <v>18.92908263206482</v>
       </c>
       <c r="B196" t="n">
-        <v>1.771147e-06</v>
+        <v>0.0001259532</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.00208687782288</v>
+        <v>19.0250883102417</v>
       </c>
       <c r="B197" t="n">
-        <v>1.770064e-06</v>
+        <v>0.0001259569</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.10109233856201</v>
+        <v>19.10609292984009</v>
       </c>
       <c r="B198" t="n">
-        <v>1.771868e-06</v>
+        <v>0.0001259361</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.20909881591797</v>
+        <v>19.20809888839722</v>
       </c>
       <c r="B199" t="n">
-        <v>1.770131e-06</v>
+        <v>0.000125934</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.30110383033752</v>
+        <v>19.30710434913635</v>
       </c>
       <c r="B200" t="n">
-        <v>1.769085e-06</v>
+        <v>0.0001259537</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.4091100692749</v>
+        <v>19.4071102142334</v>
       </c>
       <c r="B201" t="n">
-        <v>1.768596e-06</v>
+        <v>0.0001259465</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.50811576843262</v>
+        <v>19.51011610031128</v>
       </c>
       <c r="B202" t="n">
-        <v>1.770484e-06</v>
+        <v>0.0001259175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.60612154006958</v>
+        <v>19.60112118721008</v>
       </c>
       <c r="B203" t="n">
-        <v>1.769303e-06</v>
+        <v>0.0001259092</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.70712733268738</v>
+        <v>19.7121274471283</v>
       </c>
       <c r="B204" t="n">
-        <v>1.770627e-06</v>
+        <v>0.0001259133</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.81213307380676</v>
+        <v>19.82013368606567</v>
       </c>
       <c r="B205" t="n">
-        <v>1.769811e-06</v>
+        <v>0.0001259017</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.90213847160339</v>
+        <v>19.91413927078247</v>
       </c>
       <c r="B206" t="n">
-        <v>1.77006e-06</v>
+        <v>0.000125892</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20.0051441192627</v>
+        <v>20.01614499092102</v>
       </c>
       <c r="B207" t="n">
-        <v>1.769642e-06</v>
+        <v>0.0001258965</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.11215019226074</v>
+        <v>20.10615015029907</v>
       </c>
       <c r="B208" t="n">
-        <v>1.769608e-06</v>
+        <v>0.0001258917</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.20315551757812</v>
+        <v>20.2201566696167</v>
       </c>
       <c r="B209" t="n">
-        <v>1.768966e-06</v>
+        <v>0.0001258808</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.31216168403625</v>
+        <v>20.33516311645508</v>
       </c>
       <c r="B210" t="n">
-        <v>1.769732e-06</v>
+        <v>0.0001258649</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.41316771507263</v>
+        <v>20.43516898155212</v>
       </c>
       <c r="B211" t="n">
-        <v>1.769574e-06</v>
+        <v>0.0001258597</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.50417280197144</v>
+        <v>20.50517296791077</v>
       </c>
       <c r="B212" t="n">
-        <v>1.769011e-06</v>
+        <v>0.0001258736</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.60617852210999</v>
+        <v>20.61217904090881</v>
       </c>
       <c r="B213" t="n">
-        <v>1.768535e-06</v>
+        <v>0.0001258439</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.72118520736694</v>
+        <v>20.71018481254578</v>
       </c>
       <c r="B214" t="n">
-        <v>1.76962e-06</v>
+        <v>0.0001258516</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.83019137382507</v>
+        <v>20.80118989944458</v>
       </c>
       <c r="B215" t="n">
-        <v>1.768833e-06</v>
+        <v>0.0001258414</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.9021954536438</v>
+        <v>20.91219615936279</v>
       </c>
       <c r="B216" t="n">
-        <v>1.769494e-06</v>
+        <v>0.0001258436</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.01120185852051</v>
+        <v>21.00220131874084</v>
       </c>
       <c r="B217" t="n">
-        <v>1.769253e-06</v>
+        <v>0.000125844</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.10220694541931</v>
+        <v>21.10020685195923</v>
       </c>
       <c r="B218" t="n">
-        <v>1.769507e-06</v>
+        <v>0.0001258308</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.20121264457703</v>
+        <v>21.20321273803711</v>
       </c>
       <c r="B219" t="n">
-        <v>1.768396e-06</v>
+        <v>0.0001258302</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.31021881103516</v>
+        <v>21.30621886253357</v>
       </c>
       <c r="B220" t="n">
-        <v>1.770028e-06</v>
+        <v>0.0001258444</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.40022397041321</v>
+        <v>21.40622448921204</v>
       </c>
       <c r="B221" t="n">
-        <v>1.769441e-06</v>
+        <v>0.0001258312</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.50122976303101</v>
+        <v>21.50823020935059</v>
       </c>
       <c r="B222" t="n">
-        <v>1.768302e-06</v>
+        <v>0.000125834</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.60923600196838</v>
+        <v>21.63023710250854</v>
       </c>
       <c r="B223" t="n">
-        <v>1.769793e-06</v>
+        <v>0.0001258258</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.70124101638794</v>
+        <v>21.73624348640442</v>
       </c>
       <c r="B224" t="n">
-        <v>1.769244e-06</v>
+        <v>0.0001258264</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.80024671554565</v>
+        <v>21.84224915504456</v>
       </c>
       <c r="B225" t="n">
-        <v>1.768393e-06</v>
+        <v>0.000125842</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.90925312042236</v>
+        <v>21.94625544548035</v>
       </c>
       <c r="B226" t="n">
-        <v>1.76914e-06</v>
+        <v>0.0001258235</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.00625872612</v>
+        <v>22.05026125907898</v>
       </c>
       <c r="B227" t="n">
-        <v>1.769404e-06</v>
+        <v>0.0001258422</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.11326479911804</v>
+        <v>22.15626740455627</v>
       </c>
       <c r="B228" t="n">
-        <v>1.769826e-06</v>
+        <v>0.0001258167</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.21627068519592</v>
+        <v>22.26227355003357</v>
       </c>
       <c r="B229" t="n">
-        <v>1.769906e-06</v>
+        <v>0.0001258068</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.30727577209473</v>
+        <v>22.35427856445312</v>
       </c>
       <c r="B230" t="n">
-        <v>1.769698e-06</v>
+        <v>0.0001258111</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.4202823638916</v>
+        <v>22.42428255081177</v>
       </c>
       <c r="B231" t="n">
-        <v>1.76883e-06</v>
+        <v>0.0001257979</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.50128698348999</v>
+        <v>22.53428888320923</v>
       </c>
       <c r="B232" t="n">
-        <v>1.770141e-06</v>
+        <v>0.0001258142</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.60329270362854</v>
+        <v>22.60329294204712</v>
       </c>
       <c r="B233" t="n">
-        <v>1.769821e-06</v>
+        <v>0.0001258074</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.70329856872559</v>
+        <v>22.70929908752441</v>
       </c>
       <c r="B234" t="n">
-        <v>1.768365e-06</v>
+        <v>0.0001258085</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.80330419540405</v>
+        <v>22.82730579376221</v>
       </c>
       <c r="B235" t="n">
-        <v>1.768744e-06</v>
+        <v>0.0001258137</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.90631008148193</v>
+        <v>22.92731142044067</v>
       </c>
       <c r="B236" t="n">
-        <v>1.769109e-06</v>
+        <v>0.0001258332</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.0063157081604</v>
+        <v>23.00031566619873</v>
       </c>
       <c r="B237" t="n">
-        <v>1.770454e-06</v>
+        <v>0.0001258141</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.10532140731812</v>
+        <v>23.10932183265686</v>
       </c>
       <c r="B238" t="n">
-        <v>1.770115e-06</v>
+        <v>0.0001258206</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.21032762527466</v>
+        <v>23.20932769775391</v>
       </c>
       <c r="B239" t="n">
-        <v>1.770817e-06</v>
+        <v>0.0001258073</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.31733369827271</v>
+        <v>23.31233334541321</v>
       </c>
       <c r="B240" t="n">
-        <v>1.769861e-06</v>
+        <v>0.0001258111</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.42033934593201</v>
+        <v>23.40333867073059</v>
       </c>
       <c r="B241" t="n">
-        <v>1.770843e-06</v>
+        <v>0.0001258001</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.52734565734863</v>
+        <v>23.50134420394897</v>
       </c>
       <c r="B242" t="n">
-        <v>1.770615e-06</v>
+        <v>0.0001257766</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.62335133552551</v>
+        <v>23.60135006904602</v>
       </c>
       <c r="B243" t="n">
-        <v>1.770511e-06</v>
+        <v>0.0001257949</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.70135545730591</v>
+        <v>23.70335602760315</v>
       </c>
       <c r="B244" t="n">
-        <v>1.770421e-06</v>
+        <v>0.0001258034</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>23.80336141586304</v>
+        <v>23.80736184120178</v>
       </c>
       <c r="B245" t="n">
-        <v>1.768696e-06</v>
+        <v>0.0001257809</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>23.90136694908142</v>
+        <v>23.91136765480042</v>
       </c>
       <c r="B246" t="n">
-        <v>1.770529e-06</v>
+        <v>0.000125794</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.00837326049805</v>
+        <v>24.00337314605713</v>
       </c>
       <c r="B247" t="n">
-        <v>1.767719e-06</v>
+        <v>0.0001258007</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.1003782749176</v>
+        <v>24.10937905311584</v>
       </c>
       <c r="B248" t="n">
-        <v>1.76835e-06</v>
+        <v>0.0001257867</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.20938467979431</v>
+        <v>24.21438527107239</v>
       </c>
       <c r="B249" t="n">
-        <v>1.768617e-06</v>
+        <v>0.0001257947</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.30839037895203</v>
+        <v>24.30139017105103</v>
       </c>
       <c r="B250" t="n">
-        <v>1.767943e-06</v>
+        <v>0.0001258103</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.40039539337158</v>
+        <v>24.40439605712891</v>
       </c>
       <c r="B251" t="n">
-        <v>1.768518e-06</v>
+        <v>0.0001258053</v>
       </c>
     </row>
     <row r="252">
@@ -2441,127 +2441,127 @@
         <v>24.50940179824829</v>
       </c>
       <c r="B252" t="n">
-        <v>1.770017e-06</v>
+        <v>0.0001257958</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.61140751838684</v>
+        <v>24.6134078502655</v>
       </c>
       <c r="B253" t="n">
-        <v>1.768363e-06</v>
+        <v>0.0001257902</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.7094132900238</v>
+        <v>24.72541451454163</v>
       </c>
       <c r="B254" t="n">
-        <v>1.769589e-06</v>
+        <v>0.0001257885</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.81741952896118</v>
+        <v>24.8054187297821</v>
       </c>
       <c r="B255" t="n">
-        <v>1.769734e-06</v>
+        <v>0.0001257656</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24.9114248752594</v>
+        <v>24.90542459487915</v>
       </c>
       <c r="B256" t="n">
-        <v>1.768379e-06</v>
+        <v>0.0001257665</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.01043033599854</v>
+        <v>25.00343012809753</v>
       </c>
       <c r="B257" t="n">
-        <v>1.769575e-06</v>
+        <v>0.0001257494</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.11943674087524</v>
+        <v>25.11243653297424</v>
       </c>
       <c r="B258" t="n">
-        <v>1.769038e-06</v>
+        <v>0.0001257452</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>25.20844173431396</v>
+        <v>25.20044136047363</v>
       </c>
       <c r="B259" t="n">
-        <v>1.76884e-06</v>
+        <v>0.0001257387</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.30244708061218</v>
+        <v>25.3054473400116</v>
       </c>
       <c r="B260" t="n">
-        <v>1.769275e-06</v>
+        <v>0.0001257382</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25.4014527797699</v>
+        <v>25.41145348548889</v>
       </c>
       <c r="B261" t="n">
-        <v>1.769987e-06</v>
+        <v>0.0001257224</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.50945925712585</v>
+        <v>25.50745916366577</v>
       </c>
       <c r="B262" t="n">
-        <v>1.767737e-06</v>
+        <v>0.0001257327</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.60846471786499</v>
+        <v>25.60646462440491</v>
       </c>
       <c r="B263" t="n">
-        <v>1.768074e-06</v>
+        <v>0.000125741</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.71747088432312</v>
+        <v>25.7124707698822</v>
       </c>
       <c r="B264" t="n">
-        <v>1.769582e-06</v>
+        <v>0.0001257679</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25.81247639656067</v>
+        <v>25.80447626113892</v>
       </c>
       <c r="B265" t="n">
-        <v>1.769688e-06</v>
+        <v>0.0001257433</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.90148138999939</v>
+        <v>25.9024817943573</v>
       </c>
       <c r="B266" t="n">
-        <v>1.769299e-06</v>
+        <v>0.0001257674</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.00348711013794</v>
+        <v>26.01148772239685</v>
       </c>
       <c r="B267" t="n">
-        <v>1.7681e-06</v>
+        <v>0.000125754</v>
       </c>
     </row>
     <row r="268">
@@ -2569,559 +2569,559 @@
         <v>26.10749340057373</v>
       </c>
       <c r="B268" t="n">
-        <v>1.768845e-06</v>
+        <v>0.0001257602</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.20049858093262</v>
+        <v>26.20649909973145</v>
       </c>
       <c r="B269" t="n">
-        <v>1.767548e-06</v>
+        <v>0.0001257553</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.30750465393066</v>
+        <v>26.30350470542908</v>
       </c>
       <c r="B270" t="n">
-        <v>1.768741e-06</v>
+        <v>0.0001257829</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.40551042556763</v>
+        <v>26.40151023864746</v>
       </c>
       <c r="B271" t="n">
-        <v>1.767355e-06</v>
+        <v>0.0001257884</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.51151633262634</v>
+        <v>26.50951623916626</v>
       </c>
       <c r="B272" t="n">
-        <v>1.769073e-06</v>
+        <v>0.0001258055</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.61952257156372</v>
+        <v>26.61252236366272</v>
       </c>
       <c r="B273" t="n">
-        <v>1.7684e-06</v>
+        <v>0.0001257692</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.72052836418152</v>
+        <v>26.70352745056152</v>
       </c>
       <c r="B274" t="n">
-        <v>1.768435e-06</v>
+        <v>0.000125792</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.8285346031189</v>
+        <v>26.80153298377991</v>
       </c>
       <c r="B275" t="n">
-        <v>1.767189e-06</v>
+        <v>0.0001258038</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.92253971099854</v>
+        <v>26.90453886985779</v>
       </c>
       <c r="B276" t="n">
-        <v>1.76476e-06</v>
+        <v>0.0001257801</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>27.00154447555542</v>
+        <v>27.00854468345642</v>
       </c>
       <c r="B277" t="n">
-        <v>1.770045e-06</v>
+        <v>0.000125732</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.10155010223389</v>
+        <v>27.10855078697205</v>
       </c>
       <c r="B278" t="n">
-        <v>1.770697e-06</v>
+        <v>0.000125764</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.20155572891235</v>
+        <v>27.20855641365051</v>
       </c>
       <c r="B279" t="n">
-        <v>1.766109e-06</v>
+        <v>0.0001257474</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.3085618019104</v>
+        <v>27.31856250762939</v>
       </c>
       <c r="B280" t="n">
-        <v>1.772467e-06</v>
+        <v>0.00012576</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.40656757354736</v>
+        <v>27.42156863212585</v>
       </c>
       <c r="B281" t="n">
-        <v>1.77087e-06</v>
+        <v>0.0001257552</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.51057362556458</v>
+        <v>27.50857353210449</v>
       </c>
       <c r="B282" t="n">
-        <v>1.772746e-06</v>
+        <v>0.0001257584</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.61057925224304</v>
+        <v>27.61357951164246</v>
       </c>
       <c r="B283" t="n">
-        <v>1.768254e-06</v>
+        <v>0.0001257458</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.71058511734009</v>
+        <v>27.72058582305908</v>
       </c>
       <c r="B284" t="n">
-        <v>1.765488e-06</v>
+        <v>0.0001257284</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27.81859087944031</v>
+        <v>27.82059144973755</v>
       </c>
       <c r="B285" t="n">
-        <v>1.768164e-06</v>
+        <v>0.0001256791</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27.9125964641571</v>
+        <v>27.91459655761719</v>
       </c>
       <c r="B286" t="n">
-        <v>1.769048e-06</v>
+        <v>0.000125653</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.00260162353516</v>
+        <v>28.02160286903381</v>
       </c>
       <c r="B287" t="n">
-        <v>1.768477e-06</v>
+        <v>0.0001256449</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.11760807037354</v>
+        <v>28.11160802841187</v>
       </c>
       <c r="B288" t="n">
-        <v>1.767782e-06</v>
+        <v>0.0001256388</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.21161365509033</v>
+        <v>28.20961356163025</v>
       </c>
       <c r="B289" t="n">
-        <v>1.767051e-06</v>
+        <v>0.0001256368</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.30361890792847</v>
+        <v>28.32161998748779</v>
       </c>
       <c r="B290" t="n">
-        <v>1.768225e-06</v>
+        <v>0.0001256194</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.40662479400635</v>
+        <v>28.41562533378601</v>
       </c>
       <c r="B291" t="n">
-        <v>1.767757e-06</v>
+        <v>0.0001256142</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28.51063060760498</v>
+        <v>28.50463056564331</v>
       </c>
       <c r="B292" t="n">
-        <v>1.768765e-06</v>
+        <v>0.0001256092</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.60763621330261</v>
+        <v>28.60663628578186</v>
       </c>
       <c r="B293" t="n">
-        <v>1.769661e-06</v>
+        <v>0.0001255631</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.71764254570007</v>
+        <v>28.71364259719849</v>
       </c>
       <c r="B294" t="n">
-        <v>1.768505e-06</v>
+        <v>0.0001255775</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28.8366494178772</v>
+        <v>28.80364751815796</v>
       </c>
       <c r="B295" t="n">
-        <v>1.768835e-06</v>
+        <v>0.0001255674</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28.94165539741516</v>
+        <v>28.90665340423584</v>
       </c>
       <c r="B296" t="n">
-        <v>1.767937e-06</v>
+        <v>0.0001255004</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.04966139793396</v>
+        <v>29.01365971565247</v>
       </c>
       <c r="B297" t="n">
-        <v>1.768123e-06</v>
+        <v>0.0001254924</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.11766529083252</v>
+        <v>29.10466480255127</v>
       </c>
       <c r="B298" t="n">
-        <v>1.769487e-06</v>
+        <v>0.0001254839</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>29.21067094802856</v>
+        <v>29.2136709690094</v>
       </c>
       <c r="B299" t="n">
-        <v>1.768673e-06</v>
+        <v>0.0001254571</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.31867694854736</v>
+        <v>29.31767702102661</v>
       </c>
       <c r="B300" t="n">
-        <v>1.768102e-06</v>
+        <v>0.0001254295</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29.415682554245</v>
+        <v>29.40868234634399</v>
       </c>
       <c r="B301" t="n">
-        <v>1.767949e-06</v>
+        <v>0.0001254123</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>29.50768756866455</v>
+        <v>29.50968813896179</v>
       </c>
       <c r="B302" t="n">
-        <v>1.767794e-06</v>
+        <v>0.0001254012</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.61869406700134</v>
+        <v>29.61369395256042</v>
       </c>
       <c r="B303" t="n">
-        <v>1.768736e-06</v>
+        <v>0.0001254</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.71669960021973</v>
+        <v>29.71269965171814</v>
       </c>
       <c r="B304" t="n">
-        <v>1.767397e-06</v>
+        <v>0.0001254073</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>29.80370450019836</v>
+        <v>29.82570600509644</v>
       </c>
       <c r="B305" t="n">
-        <v>1.768029e-06</v>
+        <v>0.0001254077</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>29.90771055221558</v>
+        <v>29.90971088409424</v>
       </c>
       <c r="B306" t="n">
-        <v>1.767561e-06</v>
+        <v>0.0001254195</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.01271653175354</v>
+        <v>30.00971651077271</v>
       </c>
       <c r="B307" t="n">
-        <v>1.767911e-06</v>
+        <v>0.0001254257</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.10272169113159</v>
+        <v>30.10272192955017</v>
       </c>
       <c r="B308" t="n">
-        <v>1.767621e-06</v>
+        <v>0.0001254321</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.20472764968872</v>
+        <v>30.21572852134705</v>
       </c>
       <c r="B309" t="n">
-        <v>1.767673e-06</v>
+        <v>0.0001254343</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.31073355674744</v>
+        <v>30.30673360824585</v>
       </c>
       <c r="B310" t="n">
-        <v>1.766885e-06</v>
+        <v>0.0001254328</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.40073871612549</v>
+        <v>30.40273904800415</v>
       </c>
       <c r="B311" t="n">
-        <v>1.766196e-06</v>
+        <v>0.0001254288</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.5047447681427</v>
+        <v>30.50574493408203</v>
       </c>
       <c r="B312" t="n">
-        <v>1.767351e-06</v>
+        <v>0.0001254434</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.61075067520142</v>
+        <v>30.61075091362</v>
       </c>
       <c r="B313" t="n">
-        <v>1.766967e-06</v>
+        <v>0.0001254243</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.70075607299805</v>
+        <v>30.70975637435913</v>
       </c>
       <c r="B314" t="n">
-        <v>1.766346e-06</v>
+        <v>0.0001254269</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.8097620010376</v>
+        <v>30.81676268577576</v>
       </c>
       <c r="B315" t="n">
-        <v>1.766388e-06</v>
+        <v>0.0001254017</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>30.91376829147339</v>
+        <v>30.90276765823364</v>
       </c>
       <c r="B316" t="n">
-        <v>1.766083e-06</v>
+        <v>0.000125428</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.00377321243286</v>
+        <v>31.02277445793152</v>
       </c>
       <c r="B317" t="n">
-        <v>1.766183e-06</v>
+        <v>0.0001254208</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.10077881813049</v>
+        <v>31.10477900505066</v>
       </c>
       <c r="B318" t="n">
-        <v>1.76578e-06</v>
+        <v>0.00012543</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.20878481864929</v>
+        <v>31.2097852230072</v>
       </c>
       <c r="B319" t="n">
-        <v>1.765735e-06</v>
+        <v>0.0001254302</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.30879068374634</v>
+        <v>31.30279064178467</v>
       </c>
       <c r="B320" t="n">
-        <v>1.764773e-06</v>
+        <v>0.0001254422</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.41979694366455</v>
+        <v>31.41479706764221</v>
       </c>
       <c r="B321" t="n">
-        <v>1.765223e-06</v>
+        <v>0.0001254426</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.50780200958252</v>
+        <v>31.50680232048035</v>
       </c>
       <c r="B322" t="n">
-        <v>1.765731e-06</v>
+        <v>0.0001254403</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.60380744934082</v>
+        <v>31.60580778121948</v>
       </c>
       <c r="B323" t="n">
-        <v>1.765818e-06</v>
+        <v>0.0001254614</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.70381331443787</v>
+        <v>31.71581411361694</v>
       </c>
       <c r="B324" t="n">
-        <v>1.765795e-06</v>
+        <v>0.0001254832</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.80581903457642</v>
+        <v>31.80681943893433</v>
       </c>
       <c r="B325" t="n">
-        <v>1.764838e-06</v>
+        <v>0.0001254713</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>31.91282534599304</v>
+        <v>31.90282487869263</v>
       </c>
       <c r="B326" t="n">
-        <v>1.766611e-06</v>
+        <v>0.0001255099</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.02083158493042</v>
+        <v>32.00583076477051</v>
       </c>
       <c r="B327" t="n">
-        <v>1.766633e-06</v>
+        <v>0.0001255395</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>32.10683655738831</v>
+        <v>32.10883665084839</v>
       </c>
       <c r="B328" t="n">
-        <v>1.765409e-06</v>
+        <v>0.000125551</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.21384239196777</v>
+        <v>32.20184183120728</v>
       </c>
       <c r="B329" t="n">
-        <v>1.76563e-06</v>
+        <v>0.0001255905</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.31984877586365</v>
+        <v>32.31484818458557</v>
       </c>
       <c r="B330" t="n">
-        <v>1.76589e-06</v>
+        <v>0.0001256158</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.41085386276245</v>
+        <v>32.40685367584229</v>
       </c>
       <c r="B331" t="n">
-        <v>1.766786e-06</v>
+        <v>0.0001256501</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.50885939598083</v>
+        <v>32.52386021614075</v>
       </c>
       <c r="B332" t="n">
-        <v>1.765102e-06</v>
+        <v>0.0001256764</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.61186528205872</v>
+        <v>32.60586500167847</v>
       </c>
       <c r="B333" t="n">
-        <v>1.765389e-06</v>
+        <v>0.0001257128</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.72087144851685</v>
+        <v>32.71187090873718</v>
       </c>
       <c r="B334" t="n">
-        <v>1.766877e-06</v>
+        <v>0.0001257259</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.82887744903564</v>
+        <v>32.82287740707397</v>
       </c>
       <c r="B335" t="n">
-        <v>1.76678e-06</v>
+        <v>0.0001257197</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.92188286781311</v>
+        <v>32.92388319969177</v>
       </c>
       <c r="B336" t="n">
-        <v>1.76649e-06</v>
+        <v>0.000125783</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.00288772583008</v>
+        <v>33.03388953208923</v>
       </c>
       <c r="B337" t="n">
-        <v>1.767316e-06</v>
+        <v>0.0001258126</v>
       </c>
     </row>
     <row r="338">
@@ -3129,87 +3129,87 @@
         <v>33.10589361190796</v>
       </c>
       <c r="B338" t="n">
-        <v>1.766861e-06</v>
+        <v>0.0001258241</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.20589923858643</v>
+        <v>33.21589994430542</v>
       </c>
       <c r="B339" t="n">
-        <v>1.767367e-06</v>
+        <v>0.0001258423</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.31090521812439</v>
+        <v>33.30890512466431</v>
       </c>
       <c r="B340" t="n">
-        <v>1.766139e-06</v>
+        <v>0.000125627</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.40091037750244</v>
+        <v>33.40391063690186</v>
       </c>
       <c r="B341" t="n">
-        <v>1.767295e-06</v>
+        <v>0.0001258303</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.50991654396057</v>
+        <v>33.51391696929932</v>
       </c>
       <c r="B342" t="n">
-        <v>1.767623e-06</v>
+        <v>0.000125789</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.6119225025177</v>
+        <v>33.60592222213745</v>
       </c>
       <c r="B343" t="n">
-        <v>1.767431e-06</v>
+        <v>0.0001256409</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.7029275894165</v>
+        <v>33.71092820167542</v>
       </c>
       <c r="B344" t="n">
-        <v>1.767378e-06</v>
+        <v>0.0001258969</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.80793356895447</v>
+        <v>33.81693434715271</v>
       </c>
       <c r="B345" t="n">
-        <v>1.767166e-06</v>
+        <v>0.000126007</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.91193962097168</v>
+        <v>33.90893959999084</v>
       </c>
       <c r="B346" t="n">
-        <v>1.767555e-06</v>
+        <v>0.000126044</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.00194478034973</v>
+        <v>34.01694560050964</v>
       </c>
       <c r="B347" t="n">
-        <v>1.768021e-06</v>
+        <v>0.0001259589</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.10595059394836</v>
+        <v>34.12095165252686</v>
       </c>
       <c r="B348" t="n">
-        <v>1.767142e-06</v>
+        <v>0.0001260309</v>
       </c>
     </row>
     <row r="349">
@@ -3217,175 +3217,175 @@
         <v>34.21095681190491</v>
       </c>
       <c r="B349" t="n">
-        <v>1.766849e-06</v>
+        <v>0.0001260826</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30096173286438</v>
+        <v>34.30396223068237</v>
       </c>
       <c r="B350" t="n">
-        <v>1.768057e-06</v>
+        <v>0.0001260709</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.40496802330017</v>
+        <v>34.41496849060059</v>
       </c>
       <c r="B351" t="n">
-        <v>1.768225e-06</v>
+        <v>0.0001261363</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.51097393035889</v>
+        <v>34.50597381591797</v>
       </c>
       <c r="B352" t="n">
-        <v>1.766772e-06</v>
+        <v>0.0001261415</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.60097908973694</v>
+        <v>34.60597944259644</v>
       </c>
       <c r="B353" t="n">
-        <v>1.768226e-06</v>
+        <v>0.0001261588</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.70498514175415</v>
+        <v>34.71398568153381</v>
       </c>
       <c r="B354" t="n">
-        <v>1.768168e-06</v>
+        <v>0.0001262318</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>34.80799078941345</v>
+        <v>34.80599093437195</v>
       </c>
       <c r="B355" t="n">
-        <v>1.767961e-06</v>
+        <v>0.0001262199</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.90899658203125</v>
+        <v>34.90599656105042</v>
       </c>
       <c r="B356" t="n">
-        <v>1.766905e-06</v>
+        <v>0.000126295</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.0040020942688</v>
+        <v>35.01600289344788</v>
       </c>
       <c r="B357" t="n">
-        <v>1.767683e-06</v>
+        <v>0.0001262795</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.1120080947876</v>
+        <v>35.10900807380676</v>
       </c>
       <c r="B358" t="n">
-        <v>1.767643e-06</v>
+        <v>0.0001263065</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.20301342010498</v>
+        <v>35.20401358604431</v>
       </c>
       <c r="B359" t="n">
-        <v>1.766546e-06</v>
+        <v>0.0001263287</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.30701923370361</v>
+        <v>35.31201982498169</v>
       </c>
       <c r="B360" t="n">
-        <v>1.767091e-06</v>
+        <v>0.0001263742</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.40202498435974</v>
+        <v>35.40402507781982</v>
       </c>
       <c r="B361" t="n">
-        <v>1.76738e-06</v>
+        <v>0.0001264031</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.50603079795837</v>
+        <v>35.50503087043762</v>
       </c>
       <c r="B362" t="n">
-        <v>1.766524e-06</v>
+        <v>0.000126412</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.60703659057617</v>
+        <v>35.61403703689575</v>
       </c>
       <c r="B363" t="n">
-        <v>1.767007e-06</v>
+        <v>0.000126403</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.71204257011414</v>
+        <v>35.70504212379456</v>
       </c>
       <c r="B364" t="n">
-        <v>1.767627e-06</v>
+        <v>0.0001264279</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.80304765701294</v>
+        <v>35.81404852867126</v>
       </c>
       <c r="B365" t="n">
-        <v>1.765803e-06</v>
+        <v>0.000126468</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.90705370903015</v>
+        <v>35.91705441474915</v>
       </c>
       <c r="B366" t="n">
-        <v>1.767152e-06</v>
+        <v>0.000126463</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.01105976104736</v>
+        <v>36.0070595741272</v>
       </c>
       <c r="B367" t="n">
-        <v>1.766547e-06</v>
+        <v>0.0001264933</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.10206484794617</v>
+        <v>36.10206508636475</v>
       </c>
       <c r="B368" t="n">
-        <v>1.766849e-06</v>
+        <v>0.0001265105</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>36.21107125282288</v>
+        <v>36.20207071304321</v>
       </c>
       <c r="B369" t="n">
-        <v>1.765259e-06</v>
+        <v>0.0001265134</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.31507706642151</v>
+        <v>36.30507683753967</v>
       </c>
       <c r="B370" t="n">
-        <v>1.766813e-06</v>
+        <v>0.0001265246</v>
       </c>
     </row>
     <row r="371">
@@ -3393,295 +3393,295 @@
         <v>36.40608239173889</v>
       </c>
       <c r="B371" t="n">
-        <v>1.764992e-06</v>
+        <v>0.0001265491</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.50208759307861</v>
+        <v>36.51408839225769</v>
       </c>
       <c r="B372" t="n">
-        <v>1.765941e-06</v>
+        <v>0.0001265596</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>36.61109399795532</v>
+        <v>36.60509371757507</v>
       </c>
       <c r="B373" t="n">
-        <v>1.768627e-06</v>
+        <v>0.0001265633</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.70209908485413</v>
+        <v>36.70909976959229</v>
       </c>
       <c r="B374" t="n">
-        <v>1.766891e-06</v>
+        <v>0.0001265448</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.80610513687134</v>
+        <v>36.81510591506958</v>
       </c>
       <c r="B375" t="n">
-        <v>1.76561e-06</v>
+        <v>0.0001266023</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>36.9111111164093</v>
+        <v>36.90611100196838</v>
       </c>
       <c r="B376" t="n">
-        <v>1.762741e-06</v>
+        <v>0.0001266102</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.00211644172668</v>
+        <v>37.02311754226685</v>
       </c>
       <c r="B377" t="n">
-        <v>1.763968e-06</v>
+        <v>0.0001266025</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.10712242126465</v>
+        <v>37.11512303352356</v>
       </c>
       <c r="B378" t="n">
-        <v>1.763875e-06</v>
+        <v>0.0001266286</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.21212816238403</v>
+        <v>37.20612812042236</v>
       </c>
       <c r="B379" t="n">
-        <v>1.764853e-06</v>
+        <v>0.0001266381</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.30313372612</v>
+        <v>37.30213379859924</v>
       </c>
       <c r="B380" t="n">
-        <v>1.763747e-06</v>
+        <v>0.0001266499</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.40813946723938</v>
+        <v>37.40413951873779</v>
       </c>
       <c r="B381" t="n">
-        <v>1.763054e-06</v>
+        <v>0.0001266798</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.51214575767517</v>
+        <v>37.51114583015442</v>
       </c>
       <c r="B382" t="n">
-        <v>1.76375e-06</v>
+        <v>0.0001266688</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>37.60515093803406</v>
+        <v>37.60015058517456</v>
       </c>
       <c r="B383" t="n">
-        <v>1.763909e-06</v>
+        <v>0.0001266748</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.70715665817261</v>
+        <v>37.70115637779236</v>
       </c>
       <c r="B384" t="n">
-        <v>1.763259e-06</v>
+        <v>0.0001266701</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.80916237831116</v>
+        <v>37.80516242980957</v>
       </c>
       <c r="B385" t="n">
-        <v>1.762529e-06</v>
+        <v>0.0001266944</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>37.90016770362854</v>
+        <v>37.90616798400879</v>
       </c>
       <c r="B386" t="n">
-        <v>1.764093e-06</v>
+        <v>0.0001266873</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.00217366218567</v>
+        <v>38.01217436790466</v>
       </c>
       <c r="B387" t="n">
-        <v>1.762517e-06</v>
+        <v>0.0001266886</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.1111798286438</v>
+        <v>38.11217999458313</v>
       </c>
       <c r="B388" t="n">
-        <v>1.761383e-06</v>
+        <v>0.0001267062</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>38.20318508148193</v>
+        <v>38.20818543434143</v>
       </c>
       <c r="B389" t="n">
-        <v>1.761159e-06</v>
+        <v>0.000126695</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.30119061470032</v>
+        <v>38.31519150733948</v>
       </c>
       <c r="B390" t="n">
-        <v>1.763002e-06</v>
+        <v>0.0001267038</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.41019701957703</v>
+        <v>38.40619683265686</v>
       </c>
       <c r="B391" t="n">
-        <v>1.762611e-06</v>
+        <v>0.0001267091</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.50120210647583</v>
+        <v>38.52320337295532</v>
       </c>
       <c r="B392" t="n">
-        <v>1.762507e-06</v>
+        <v>0.0001267099</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.61120843887329</v>
+        <v>38.61520862579346</v>
       </c>
       <c r="B393" t="n">
-        <v>1.762146e-06</v>
+        <v>0.0001267173</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>38.73621559143066</v>
+        <v>38.70621395111084</v>
       </c>
       <c r="B394" t="n">
-        <v>1.760973e-06</v>
+        <v>0.0001267136</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.84922218322754</v>
+        <v>38.80521965026855</v>
       </c>
       <c r="B395" t="n">
-        <v>1.761767e-06</v>
+        <v>0.0001267097</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.95422792434692</v>
+        <v>38.91422605514526</v>
       </c>
       <c r="B396" t="n">
-        <v>1.762128e-06</v>
+        <v>0.0001267288</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.02423214912415</v>
+        <v>39.00523114204407</v>
       </c>
       <c r="B397" t="n">
-        <v>1.761366e-06</v>
+        <v>0.0001267049</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.13123822212219</v>
+        <v>39.10523676872253</v>
       </c>
       <c r="B398" t="n">
-        <v>1.76118e-06</v>
+        <v>0.0001267202</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>39.20424246788025</v>
+        <v>39.21524310112</v>
       </c>
       <c r="B399" t="n">
-        <v>1.761136e-06</v>
+        <v>0.0001267225</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.31124830245972</v>
+        <v>39.3062481880188</v>
       </c>
       <c r="B400" t="n">
-        <v>1.760573e-06</v>
+        <v>0.0001267244</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.4022536277771</v>
+        <v>39.40125370025635</v>
       </c>
       <c r="B401" t="n">
-        <v>1.761786e-06</v>
+        <v>0.0001267204</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.50025939941406</v>
+        <v>39.50825977325439</v>
       </c>
       <c r="B402" t="n">
-        <v>1.760485e-06</v>
+        <v>0.0001267159</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.61026549339294</v>
+        <v>39.62326669692993</v>
       </c>
       <c r="B403" t="n">
-        <v>1.760593e-06</v>
+        <v>0.0001267257</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.70127081871033</v>
+        <v>39.72827243804932</v>
       </c>
       <c r="B404" t="n">
-        <v>1.760684e-06</v>
+        <v>0.0001267188</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.80827689170837</v>
+        <v>39.80927705764771</v>
       </c>
       <c r="B405" t="n">
-        <v>1.759525e-06</v>
+        <v>0.000126696</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>39.91528296470642</v>
+        <v>39.92328357696533</v>
       </c>
       <c r="B406" t="n">
-        <v>1.7605e-06</v>
+        <v>0.0001266951</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>40.00728821754456</v>
+        <v>40.0282895565033</v>
       </c>
       <c r="B407" t="n">
-        <v>1.760233e-06</v>
+        <v>0.0001266979</v>
       </c>
     </row>
   </sheetData>
